--- a/Project Gantt Chart.xlsx
+++ b/Project Gantt Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="0" windowWidth="27100" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="11660" yWindow="0" windowWidth="17140" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Tasks</t>
   </si>
@@ -60,18 +60,6 @@
     <t>Create Test Cases</t>
   </si>
   <si>
-    <t>System Implementation (Classes)</t>
-  </si>
-  <si>
-    <t>Sub-System Integration</t>
-  </si>
-  <si>
-    <t>Test the System</t>
-  </si>
-  <si>
-    <t>Create and Installation Package for System Deployment</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
@@ -82,6 +70,123 @@
   </si>
   <si>
     <t>Buffer Week</t>
+  </si>
+  <si>
+    <t>Track Model - Design executable component</t>
+  </si>
+  <si>
+    <t>Track Model - Create Test Plan</t>
+  </si>
+  <si>
+    <t>Track Model - Complete Block Class</t>
+  </si>
+  <si>
+    <t>Track Model - Complete PowerGenerator Class</t>
+  </si>
+  <si>
+    <t>Track Model - Complete LoadTrackMap Class</t>
+  </si>
+  <si>
+    <t>Track Model - Complete TrackSwitch Class</t>
+  </si>
+  <si>
+    <t>Track Model - Complete Track Model Class</t>
+  </si>
+  <si>
+    <t>Track Controller - Design executable component</t>
+  </si>
+  <si>
+    <t>Track Controller - Create Test Plan</t>
+  </si>
+  <si>
+    <t>Track Model - Create Architectual Design</t>
+  </si>
+  <si>
+    <t>Track Controller - Create Architectual Design</t>
+  </si>
+  <si>
+    <t>Track Controller - Complete SafetyTrackSpeed Class</t>
+  </si>
+  <si>
+    <t>Track Controller - Complete RailwayCrossing Class</t>
+  </si>
+  <si>
+    <t>Track Controller - Complete TrackStatus Class</t>
+  </si>
+  <si>
+    <t>Track Controller - Complete ValidateBooleanLogic Class</t>
+  </si>
+  <si>
+    <t>Track Controller - Complete TrackController Class</t>
+  </si>
+  <si>
+    <t>Train Controller - Design executable component</t>
+  </si>
+  <si>
+    <t>Train Controller - Create Architectual Design</t>
+  </si>
+  <si>
+    <t>Train Controller - Create Test Plan</t>
+  </si>
+  <si>
+    <t>Train Controller - Complete TrainControl Class</t>
+  </si>
+  <si>
+    <t>Train Controller - Complete GetTrainInfo Class</t>
+  </si>
+  <si>
+    <t>Train Controller - Complete TrainControllerGUI Class</t>
+  </si>
+  <si>
+    <t>CTC Office - Design executable component</t>
+  </si>
+  <si>
+    <t>CTC Office - Create Test Plan</t>
+  </si>
+  <si>
+    <t>CTC Office - Create Architectual Design</t>
+  </si>
+  <si>
+    <t>CTC Office - Complete CTC GUI Class</t>
+  </si>
+  <si>
+    <t>CTC Office - Complete Stops Class</t>
+  </si>
+  <si>
+    <t>CTC Office - Complete TrackBlock Class</t>
+  </si>
+  <si>
+    <t>Track Model - Complete CTC GUI Class</t>
+  </si>
+  <si>
+    <t>Track Model - Complete Stops Class</t>
+  </si>
+  <si>
+    <t>Track Model - Complete TrackBlock Class</t>
+  </si>
+  <si>
+    <t>Train Controller - Complete SafControl Class</t>
+  </si>
+  <si>
+    <t>CTC Office - Complete Train Class</t>
+  </si>
+  <si>
+    <t>CTC Office - Complete Switch Class</t>
+  </si>
+  <si>
+    <t>Track Model - Complete Train Class</t>
+  </si>
+  <si>
+    <t>Track Model - Complete Switch Class</t>
+  </si>
+  <si>
+    <t>Test System Sub-Components</t>
+  </si>
+  <si>
+    <t>Test Complete System</t>
+  </si>
+  <si>
+    <t>Create an Installation Package for System Development</t>
   </si>
 </sst>
 </file>
@@ -94,6 +199,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,8 +236,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -144,13 +294,57 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -192,9 +386,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:f>Sheet1!$A$2:$A$55</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>SRS Document</c:v>
                 </c:pt>
@@ -232,18 +426,129 @@
                   <c:v>Create Test Cases</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>System Implementation (Classes)</c:v>
+                  <c:v>Track Model - Create Test Plan</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Sub-System Integration</c:v>
+                  <c:v>Track Model - Create Architectual Design</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Test the System</c:v>
+                  <c:v>Track Model - Complete LoadTrackMap Class</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Create and Installation Package for System Deployment</c:v>
+                  <c:v>Track Model - Complete Block Class</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Track Model - Complete PowerGenerator Class</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Track Model - Complete Track Model Class</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Track Model - Complete TrackSwitch Class</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Track Controller - Design executable component</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Track Controller - Create Test Plan</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Track Controller - Create Architectual Design</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Track Controller - Complete SafetyTrackSpeed Class</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Track Controller - Complete RailwayCrossing Class</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Track Controller - Complete TrackStatus Class</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Track Controller - Complete ValidateBooleanLogic Class</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Track Controller - Complete TrackController Class</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Train Controller - Design executable component</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Train Controller - Create Test Plan</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Train Controller - Create Architectual Design</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Train Controller - Complete TrainControl Class</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Train Controller - Complete SafControl Class</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Train Controller - Complete GetTrainInfo Class</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Train Controller - Complete TrainControllerGUI Class</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>CTC Office - Design executable component</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>CTC Office - Create Test Plan</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>CTC Office - Create Architectual Design</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>CTC Office - Complete Train Class</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>CTC Office - Complete Switch Class</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>CTC Office - Complete CTC GUI Class</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>CTC Office - Complete Stops Class</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>CTC Office - Complete TrackBlock Class</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Track Model - Design executable component</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Track Model - Create Test Plan</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Track Model - Create Architectual Design</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Track Model - Complete Train Class</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Track Model - Complete Switch Class</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Track Model - Complete CTC GUI Class</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Track Model - Complete Stops Class</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Track Model - Complete TrackBlock Class</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Test System Sub-Components</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Test Complete System</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Create an Installation Package for System Development</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>Buffer Week</c:v>
                 </c:pt>
               </c:strCache>
@@ -251,10 +556,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$18</c:f>
+              <c:f>Sheet1!$B$2:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>41654.0</c:v>
                 </c:pt>
@@ -283,7 +588,7 @@
                   <c:v>41692.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41695.0</c:v>
+                  <c:v>41699.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>41702.0</c:v>
@@ -292,18 +597,129 @@
                   <c:v>41707.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41711.0</c:v>
+                  <c:v>41716.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41715.0</c:v>
+                  <c:v>41716.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41716.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41723.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>41737.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="52">
                   <c:v>41742.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="53">
                   <c:v>41745.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -319,9 +735,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:f>Sheet1!$A$2:$A$55</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>SRS Document</c:v>
                 </c:pt>
@@ -359,18 +775,129 @@
                   <c:v>Create Test Cases</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>System Implementation (Classes)</c:v>
+                  <c:v>Track Model - Create Test Plan</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Sub-System Integration</c:v>
+                  <c:v>Track Model - Create Architectual Design</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Test the System</c:v>
+                  <c:v>Track Model - Complete LoadTrackMap Class</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Create and Installation Package for System Deployment</c:v>
+                  <c:v>Track Model - Complete Block Class</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Track Model - Complete PowerGenerator Class</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Track Model - Complete Track Model Class</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Track Model - Complete TrackSwitch Class</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Track Controller - Design executable component</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Track Controller - Create Test Plan</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Track Controller - Create Architectual Design</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Track Controller - Complete SafetyTrackSpeed Class</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Track Controller - Complete RailwayCrossing Class</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Track Controller - Complete TrackStatus Class</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Track Controller - Complete ValidateBooleanLogic Class</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Track Controller - Complete TrackController Class</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Train Controller - Design executable component</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Train Controller - Create Test Plan</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Train Controller - Create Architectual Design</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Train Controller - Complete TrainControl Class</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Train Controller - Complete SafControl Class</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Train Controller - Complete GetTrainInfo Class</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Train Controller - Complete TrainControllerGUI Class</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>CTC Office - Design executable component</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>CTC Office - Create Test Plan</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>CTC Office - Create Architectual Design</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>CTC Office - Complete Train Class</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>CTC Office - Complete Switch Class</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>CTC Office - Complete CTC GUI Class</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>CTC Office - Complete Stops Class</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>CTC Office - Complete TrackBlock Class</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Track Model - Design executable component</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Track Model - Create Test Plan</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Track Model - Create Architectual Design</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Track Model - Complete Train Class</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Track Model - Complete Switch Class</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Track Model - Complete CTC GUI Class</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Track Model - Complete Stops Class</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Track Model - Complete TrackBlock Class</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Test System Sub-Components</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Test Complete System</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Create an Installation Package for System Development</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>Buffer Week</c:v>
                 </c:pt>
               </c:strCache>
@@ -378,10 +905,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$18</c:f>
+              <c:f>Sheet1!$C$2:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>21.0</c:v>
                 </c:pt>
@@ -410,27 +937,138 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>5.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="52">
                   <c:v>3.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="53">
                   <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -447,11 +1085,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2119773560"/>
-        <c:axId val="2122178952"/>
+        <c:axId val="2106110664"/>
+        <c:axId val="2106113640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2119773560"/>
+        <c:axId val="2106110664"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -460,7 +1098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122178952"/>
+        <c:crossAx val="2106113640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -468,7 +1106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122178952"/>
+        <c:axId val="2106113640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41751.0"/>
@@ -481,7 +1119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119773560"/>
+        <c:crossAx val="2106110664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.0"/>
@@ -496,8 +1134,8 @@
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -513,15 +1151,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -542,16 +1180,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -560,8 +1198,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11696700" y="4521200"/>
-          <a:ext cx="1244600" cy="1727200"/>
+          <a:off x="13906500" y="12103100"/>
+          <a:ext cx="1244600" cy="5105400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -626,6 +1264,69 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>Work Package 3: 04/24/2014</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>MileStone 1:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Prelimary Planning</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>03/07/14</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>MileStone 2:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Sysem and Component Design</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>03/27/14</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>MileStone 3:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>System and Component Implementation and Testing and Documentation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>04/16/14</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -958,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O84" sqref="O84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -974,13 +1675,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1006,7 +1707,7 @@
         <v>41668</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C18" si="0">D3-B3</f>
+        <f t="shared" ref="C3:C13" si="0">D3-B3</f>
         <v>6</v>
       </c>
       <c r="D3" s="1">
@@ -1126,14 +1827,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>41695</v>
+        <v>41699</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>41700</v>
+        <v>41701</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1145,10 +1846,10 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>41705</v>
+        <v>41704</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1168,62 +1869,62 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>41711</v>
+        <v>41716</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>D14-B14</f>
+        <v>9</v>
       </c>
       <c r="D14" s="1">
-        <v>41730</v>
+        <v>41725</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>D15-B15</f>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>41736</v>
+        <v>41725</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
-        <v>41737</v>
+        <v>41716</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>D16-B16</f>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
-        <v>41742</v>
+        <v>41725</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>41742</v>
+        <v>41716</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>D17-B17</f>
+        <v>9</v>
       </c>
       <c r="D17" s="1">
-        <v>41745</v>
+        <v>41725</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1231,13 +1932,576 @@
         <v>20</v>
       </c>
       <c r="B18" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C18">
+        <f>D18-B18</f>
+        <v>9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C19">
+        <f>D19-B19</f>
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C20">
+        <f>D20-B20</f>
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C28" si="1">D21-B21</f>
+        <v>9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D24" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D25" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D26" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D27" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D28" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:C35" si="2">D29-B29</f>
+        <v>9</v>
+      </c>
+      <c r="D29" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D30" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D32" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D33" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D34" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D35" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:C42" si="3">D36-B36</f>
+        <v>9</v>
+      </c>
+      <c r="D36" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D37" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D38" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D39" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D40" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D41" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D42" s="1">
+        <v>41725</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:C50" si="4">D43-B43</f>
+        <v>9</v>
+      </c>
+      <c r="D43" s="1">
+        <v>41725</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D44" s="1">
+        <v>41725</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D45" s="1">
+        <v>41725</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D46" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D47" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D48" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D49" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D50" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1">
+        <v>41716</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:C54" si="5">D51-B51</f>
+        <v>9</v>
+      </c>
+      <c r="D51" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="1">
+        <v>41723</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="1">
+        <v>41737</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D53" s="1">
+        <v>41742</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="1">
+        <v>41742</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
         <v>41745</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="1">
+        <v>41745</v>
+      </c>
+      <c r="C55">
+        <f>D55-B55</f>
         <v>7</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D55" s="1">
         <v>41752</v>
       </c>
     </row>
